--- a/KeywordSearch/experiments.xlsx
+++ b/KeywordSearch/experiments.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SookmyungWomensUniv\Documents\Provenance-Data-Management-System\KeywordSearch\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Provenance-Data-Management-System\KeywordSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038CE96-0152-4BF1-A136-6E93BC61CB57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6970"/>
+    <workbookView xWindow="-26175" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="5">
   <si>
     <t>naïve</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -33,11 +34,23 @@
     <t>proposed</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>keyword = '양유정' , '서민지' , '이주연'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keyword = '양유정' , '서민지'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/ 시간 단위 : 초</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -63,10 +76,19 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thick">
+        <color rgb="FFFF0000"/>
+      </right>
       <top/>
       <bottom/>
       <diagonal/>
@@ -77,8 +99,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -360,41 +385,89 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="9" style="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="B1">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="B2">
         <v>2000</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>4000</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>6000</v>
       </c>
-      <c r="E1">
+      <c r="E2">
         <v>8000</v>
       </c>
+      <c r="F2" s="1">
+        <v>10000</v>
+      </c>
+      <c r="H2">
+        <v>2000</v>
+      </c>
+      <c r="I2">
+        <v>4000</v>
+      </c>
+      <c r="J2">
+        <v>6000</v>
+      </c>
+      <c r="K2">
+        <v>8000</v>
+      </c>
+      <c r="L2">
+        <v>10000</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="F3" s="1">
+        <v>143.959</v>
+      </c>
+      <c r="G3" t="s">
+        <v>0</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>10.045</v>
+      </c>
+      <c r="G4" t="s">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>22.452000000000002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/KeywordSearch/experiments.xlsx
+++ b/KeywordSearch/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Provenance-Data-Management-System\KeywordSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5038CE96-0152-4BF1-A136-6E93BC61CB57}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771FD14-5E93-45B1-9475-DDE10563B2D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26175" yWindow="1830" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19770" yWindow="1440" windowWidth="15570" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I16" sqref="I15:I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,25 +444,57 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="D3">
+        <v>2.5198999999999998</v>
+      </c>
+      <c r="E3">
+        <v>2.5598999999999998</v>
+      </c>
       <c r="F3" s="1">
-        <v>143.959</v>
+        <v>3.0448</v>
       </c>
       <c r="G3" t="s">
         <v>0</v>
+      </c>
+      <c r="J3">
+        <v>215.51300000000001</v>
+      </c>
+      <c r="K3">
+        <v>209.17699999999999</v>
+      </c>
+      <c r="L3">
+        <v>225.20480000000001</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="D4">
+        <v>6.59E-2</v>
+      </c>
+      <c r="E4">
+        <v>7.2989999999999999E-2</v>
+      </c>
       <c r="F4" s="1">
-        <v>10.045</v>
+        <v>9.5000000000000001E-2</v>
       </c>
       <c r="G4" t="s">
         <v>1</v>
       </c>
+      <c r="J4">
+        <v>0.123</v>
+      </c>
+      <c r="K4">
+        <v>2.0869499999999999</v>
+      </c>
       <c r="L4">
-        <v>22.452000000000002</v>
+        <v>2.3799000000000001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="K5">
+        <v>0.23699999999999999</v>
       </c>
     </row>
   </sheetData>

--- a/KeywordSearch/experiments.xlsx
+++ b/KeywordSearch/experiments.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\YuJeong\Documents\Provenance-Data-Management-System\KeywordSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4771FD14-5E93-45B1-9475-DDE10563B2D1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC34C61-250A-4A3F-9295-235F106D49B2}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-19770" yWindow="1440" windowWidth="15570" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-15510" yWindow="1770" windowWidth="15570" windowHeight="11340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -386,10 +386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:I16"/>
+      <selection activeCell="C7" activeCellId="1" sqref="B4 C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -444,6 +444,12 @@
       <c r="A3" t="s">
         <v>0</v>
       </c>
+      <c r="B3">
+        <v>2.2128999999999999</v>
+      </c>
+      <c r="C3">
+        <v>2.3309000000000002</v>
+      </c>
       <c r="D3">
         <v>2.5198999999999998</v>
       </c>
@@ -455,6 +461,12 @@
       </c>
       <c r="G3" t="s">
         <v>0</v>
+      </c>
+      <c r="H3">
+        <v>190.90300999999999</v>
+      </c>
+      <c r="I3">
+        <v>193.48589999999999</v>
       </c>
       <c r="J3">
         <v>215.51300000000001</v>
@@ -470,6 +482,12 @@
       <c r="A4" t="s">
         <v>1</v>
       </c>
+      <c r="B4">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="C4">
+        <v>5.8020000000000002E-2</v>
+      </c>
       <c r="D4">
         <v>6.59E-2</v>
       </c>
@@ -482,19 +500,20 @@
       <c r="G4" t="s">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>8.6900000000000005E-2</v>
+      </c>
+      <c r="I4">
+        <v>0.123</v>
+      </c>
       <c r="J4">
-        <v>0.123</v>
+        <v>1.6119000000000001</v>
       </c>
       <c r="K4">
         <v>2.0869499999999999</v>
       </c>
       <c r="L4">
         <v>2.3799000000000001</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="K5">
-        <v>0.23699999999999999</v>
       </c>
     </row>
   </sheetData>
